--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48016AFD-F86B-469A-9FAB-8999C0DFD13B}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57BC7FC7-FB7F-44A2-81F0-C7ED73392465}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1DC5FDF4-5CDC-45C7-8D75-E637F4CDB6DA}</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{1DC5FDF4-5CDC-45C7-8D75-E637F4CDB6DA}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Hay que juntar las areas metropolitanas de las ciudades que se estan evaluando en las de ocupados</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Title</t>
   </si>
@@ -65,9 +83,6 @@
     <t>Evolution of coverage of basic services (gas / water / electicity) in cities</t>
   </si>
   <si>
-    <t>Evolution of purchasing power / multidimensional poverty in cities</t>
-  </si>
-  <si>
     <t>Evolution of imports and exports of cities</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t xml:space="preserve">Evolution in # of jobs (per sector) in cities </t>
   </si>
   <si>
-    <t>Evolution of % of educated citizens / level of education in cities / % of citizens on different education levels (university, high school, primary, none)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evolution in # of syndicates (per sector) in cities </t>
   </si>
   <si>
@@ -125,17 +137,181 @@
     <t>Link</t>
   </si>
   <si>
-    <t>2015.01-2023.07</t>
-  </si>
-  <si>
-    <t>Yes (missing previous years)</t>
+    <t>2015.03-2023.12</t>
+  </si>
+  <si>
+    <t>Yes (Define Cities Later)</t>
+  </si>
+  <si>
+    <t>Evolution of Multidimensional Poverty in cities</t>
+  </si>
+  <si>
+    <t>https://microdatos.dane.gov.co/index.php/catalog/782</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evolution of % of educated citizens / level of education in cities / % of citizens on different education levels (university, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>high school</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos.gov</t>
+  </si>
+  <si>
+    <t>https://www.datos.gov.co/Educaci-n/MEN_ESTADISTICAS_EN_EDUCACION_EN_PREESCOLAR-B-SICA/nudc-7mev/about_data</t>
+  </si>
+  <si>
+    <t>MEN_ESTADISTICAS_EN_EDUCACION_EN_PREESCOLAR__B_SICA_Y_MEDIA_POR_MUNICIPIO_20240221</t>
+  </si>
+  <si>
+    <t>2011-2022</t>
+  </si>
+  <si>
+    <t>Yes, missing University</t>
+  </si>
+  <si>
+    <t>No, have to also turn it into a monthly statistic</t>
+  </si>
+  <si>
+    <t>Evolution of Monetary Poverty in cities</t>
+  </si>
+  <si>
+    <t>Frecuency</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2012-2022</t>
+  </si>
+  <si>
+    <t>https://www.dane.gov.co/index.php/estadisticas-por-tema/pobreza-y-condiciones-de-vida/pobreza-monetaria</t>
+  </si>
+  <si>
+    <t>Evolution of purchasing power in cities</t>
+  </si>
+  <si>
+    <t>Evolution of GDP in cities</t>
+  </si>
+  <si>
+    <t>https://www.dane.gov.co/index.php/estadisticas-por-tema/cuentas-nacionales/cuentas-nacionales-departamentales</t>
+  </si>
+  <si>
+    <t>2005-2022</t>
+  </si>
+  <si>
+    <t>Grouped by</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Evolution of CPI (Consumer Price Index) (Indice de Precio al Consumidor IPC)</t>
+  </si>
+  <si>
+    <t>1.2.4.IPC_Por ciudad_IQY</t>
+  </si>
+  <si>
+    <t>Banco de la Republica</t>
+  </si>
+  <si>
+    <t>https://totoro.banrep.gov.co/analytics/saw.dll?Portal&amp;PortalPath=%2Fshared%2FDashboards_T%2FD_Estad%C3%ADsticas%2FEstad%C3%ADsticas&amp;NQUser=publico&amp;NQPassword=publico123&amp;lang=es&amp;page=Precios%20e%20inflaci%C3%B3n</t>
+  </si>
+  <si>
+    <t>No ((IPC, Variacion año corrido%, variación anual %, variación mensual %))</t>
+  </si>
+  <si>
+    <t>1979-2024</t>
+  </si>
+  <si>
+    <t>Indicadores de Municipios 2016-2021</t>
+  </si>
+  <si>
+    <t>https://portalterritorial.dnp.gov.co/AdmInfoTerritorial/MenuInfoTerrEstMDM</t>
+  </si>
+  <si>
+    <t>2017-2021</t>
+  </si>
+  <si>
+    <t>Portal Territorial de Colombia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +335,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,64 +492,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -365,12 +600,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -380,7 +617,22 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -397,23 +649,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -441,13 +677,29 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -458,8 +710,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -471,15 +721,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -487,10 +728,22 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -515,7 +768,7 @@
           <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -540,26 +793,35 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alvaro Guijarro" id="{C9DDBDA8-A633-4D28-9F23-BA7D46D13629}" userId="dda39ef004021ca5" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}" name="Tabla1" displayName="Tabla1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G15" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{845D20C5-CB1A-4C08-8F4E-F55FF1563C33}" name="Title" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BFEB8C7B-6C34-415A-AA17-36DE8B43DE06}" name="Description" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F40FC73B-648C-470A-AACA-558D783A5F8B}" name="Source" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BA9788FE-8840-43CF-B4CD-9FEBE6CD81DA}" name="Link" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1A710DD9-8D66-4BE4-88A3-A246CFAF52F1}" name="Timeframe" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{91E3C52F-3D0A-4235-9BC1-B39917C7C053}" name="Got it?" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}" name="Tabla1" displayName="Tabla1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J19" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{845D20C5-CB1A-4C08-8F4E-F55FF1563C33}" name="Title" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BFEB8C7B-6C34-415A-AA17-36DE8B43DE06}" name="Description" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{F40FC73B-648C-470A-AACA-558D783A5F8B}" name="Source" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BA9788FE-8840-43CF-B4CD-9FEBE6CD81DA}" name="Link" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1A710DD9-8D66-4BE4-88A3-A246CFAF52F1}" name="Timeframe" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{6A4190A2-4806-419C-9F6F-F418A0A9A0AB}" name="Frecuency" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{91E3C52F-3D0A-4235-9BC1-B39917C7C053}" name="Got it?" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{52055349-3744-43BF-B934-0C94B8A8928E}" name="Grouped by" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{40A9E45C-440D-4F5E-8EDB-7646D73F4F58}" name="Cleaned?" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{36D15E81-48E7-4751-9C86-C7D65A35DCA5}" name="Explanation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -597,7 +859,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -703,7 +965,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -845,238 +1107,454 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I2" dT="2024-02-21T01:28:11.62" personId="{C9DDBDA8-A633-4D28-9F23-BA7D46D13629}" id="{1DC5FDF4-5CDC-45C7-8D75-E637F4CDB6DA}">
+    <text>Hay que juntar las areas metropolitanas de las ciudades que se estan evaluando en las de ocupados</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C10" sqref="C10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="71.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" style="12" customWidth="1"/>
+    <col min="2" max="2" width="47" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="40.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="J4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E54AA009-5C77-4AE8-8A9A-41A014D22DBA}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{E2D73C58-1A1C-4D25-AFC1-85ECBD970296}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57BC7FC7-FB7F-44A2-81F0-C7ED73392465}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC3CC1F-96E8-454B-ABA1-F7250182AE5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Title</t>
   </si>
@@ -138,9 +139,6 @@
   </si>
   <si>
     <t>2015.03-2023.12</t>
-  </si>
-  <si>
-    <t>Yes (Define Cities Later)</t>
   </si>
   <si>
     <t>Evolution of Multidimensional Poverty in cities</t>
@@ -235,9 +233,6 @@
     <t>Yes, missing University</t>
   </si>
   <si>
-    <t>No, have to also turn it into a monthly statistic</t>
-  </si>
-  <si>
     <t>Evolution of Monetary Poverty in cities</t>
   </si>
   <si>
@@ -287,9 +282,6 @@
   </si>
   <si>
     <t>https://totoro.banrep.gov.co/analytics/saw.dll?Portal&amp;PortalPath=%2Fshared%2FDashboards_T%2FD_Estad%C3%ADsticas%2FEstad%C3%ADsticas&amp;NQUser=publico&amp;NQPassword=publico123&amp;lang=es&amp;page=Precios%20e%20inflaci%C3%B3n</t>
-  </si>
-  <si>
-    <t>No ((IPC, Variacion año corrido%, variación anual %, variación mensual %))</t>
   </si>
   <si>
     <t>1979-2024</t>
@@ -311,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,12 +326,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -721,13 +707,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -744,6 +723,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -800,7 +786,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}" name="Tabla1" displayName="Tabla1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}" name="Tabla1" displayName="Tabla1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J19" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{845D20C5-CB1A-4C08-8F4E-F55FF1563C33}" name="Title" dataDxfId="9"/>
@@ -1125,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,19 +1146,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,45 +1178,45 @@
         <v>22</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,25 +1236,25 @@
         <v>27</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1285,55 +1271,55 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>20</v>
@@ -1341,37 +1327,37 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F8" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="18"/>
@@ -1385,31 +1371,31 @@
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1427,31 +1413,31 @@
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1467,7 +1453,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1480,7 +1466,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1519,7 +1505,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1546,15 +1532,16 @@
       <c r="I19" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E54AA009-5C77-4AE8-8A9A-41A014D22DBA}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{E2D73C58-1A1C-4D25-AFC1-85ECBD970296}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{E408EE6A-5FF3-457B-BB43-779468FAFA03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC3CC1F-96E8-454B-ABA1-F7250182AE5A}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AACB2CA-A4C2-4F28-AAC3-AC9CC89D3263}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
+    <workbookView xWindow="20370" yWindow="-5520" windowWidth="29040" windowHeight="17520" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Title</t>
   </si>
@@ -87,9 +86,6 @@
     <t>Evolution of imports and exports of cities</t>
   </si>
   <si>
-    <t>Evolution of taxes (per sector) in cities</t>
-  </si>
-  <si>
     <t>Evolution of micro, medium, and large companies (per sector) in cities</t>
   </si>
   <si>
@@ -118,9 +114,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>DCD-area-proypoblacion-Mun-1985-2024-(Population Evolution of Cities)</t>
   </si>
   <si>
     <t>1984-2035</t>
@@ -224,9 +217,6 @@
     <t>https://www.datos.gov.co/Educaci-n/MEN_ESTADISTICAS_EN_EDUCACION_EN_PREESCOLAR-B-SICA/nudc-7mev/about_data</t>
   </si>
   <si>
-    <t>MEN_ESTADISTICAS_EN_EDUCACION_EN_PREESCOLAR__B_SICA_Y_MEDIA_POR_MUNICIPIO_20240221</t>
-  </si>
-  <si>
     <t>2011-2022</t>
   </si>
   <si>
@@ -275,9 +265,6 @@
     <t>Evolution of CPI (Consumer Price Index) (Indice de Precio al Consumidor IPC)</t>
   </si>
   <si>
-    <t>1.2.4.IPC_Por ciudad_IQY</t>
-  </si>
-  <si>
     <t>Banco de la Republica</t>
   </si>
   <si>
@@ -297,6 +284,36 @@
   </si>
   <si>
     <t>Portal Territorial de Colombia</t>
+  </si>
+  <si>
+    <t>https://www.dnp.gov.co/LaEntidad_/subdireccion-general-descentralizacion-desarrollo-territorial/direccion-descentralizacion-fortalecimiento-fiscal/Paginas/informacion-fiscal-y-financiera.aspx</t>
+  </si>
+  <si>
+    <t>2015-2022</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>Evolution of fiscal performance by city</t>
+  </si>
+  <si>
+    <t>Monetary_Poverty_2012-12-2022-12</t>
+  </si>
+  <si>
+    <t>Education_data_cleaned_2011-12-2022-12</t>
+  </si>
+  <si>
+    <t>CPI_cleaned_2015-01-2024-01 
+CPI_Montly_var_cleaned_2015-01-2024-01
+CPI_Year_to_date_var_cleaned_2015-01-2024-01
+CPI_Yearly_var_cleaned_2015-01-2024-01</t>
+  </si>
+  <si>
+    <t>Population_cleaned_2010-12-2023-12</t>
+  </si>
+  <si>
+    <t>Evolution of Budget Execution by City</t>
   </si>
 </sst>
 </file>
@@ -478,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -545,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,8 +806,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}" name="Tabla1" displayName="Tabla1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J19" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}" name="Tabla1" displayName="Tabla1" ref="A1:J20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J20" xr:uid="{4A23D101-2A44-4089-BD97-FEA86080D220}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{845D20C5-CB1A-4C08-8F4E-F55FF1563C33}" name="Title" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BFEB8C7B-6C34-415A-AA17-36DE8B43DE06}" name="Description" dataDxfId="8"/>
@@ -1109,15 +1129,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="12" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="12"/>
@@ -1140,262 +1160,264 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="16"/>
       <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="11"/>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1413,63 +1435,79 @@
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
@@ -1479,10 +1517,10 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="18"/>
@@ -1495,7 +1533,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="18"/>
@@ -1505,10 +1543,10 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="18"/>
@@ -1518,10 +1556,10 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="18"/>
@@ -1530,6 +1568,19 @@
       <c r="G19" s="3"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{3161AA99-2E20-4B85-8449-7A266E90B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AACB2CA-A4C2-4F28-AAC3-AC9CC89D3263}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5520" windowWidth="29040" windowHeight="17520" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BABF50E0-C175-424A-A82F-6BD91B215671}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
+    <workbookView minimized="1" xWindow="3195" yWindow="1800" windowWidth="8340" windowHeight="8070" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Title</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Evolution of Budget Execution by City</t>
+  </si>
+  <si>
+    <t>https://simplemaps.com/data/co-cities</t>
+  </si>
+  <si>
+    <t>Simple Maps</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,12 +1567,20 @@
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">

--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BABF50E0-C175-424A-A82F-6BD91B215671}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058DAFF7-294F-434F-B077-65C352539CDB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3195" yWindow="1800" windowWidth="8340" windowHeight="8070" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
       <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -1602,11 +1602,12 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E54AA009-5C77-4AE8-8A9A-41A014D22DBA}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{E2D73C58-1A1C-4D25-AFC1-85ECBD970296}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{E408EE6A-5FF3-457B-BB43-779468FAFA03}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{A22BEEA3-13E8-4871-B2D3-0ACB4CED805C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Datasets/List_of_Possible_Data_Sets.xlsx
+++ b/Datasets/List_of_Possible_Data_Sets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dda39ef004021ca5/Documents/GitHub/Hertie_School_MDS_Master_Thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{058DAFF7-294F-434F-B077-65C352539CDB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{0F659CC4-FC61-4FCB-A4E7-CFAA2C0E1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279BC4F8-0921-4BC3-A08B-7121F22BAF6E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E935717-DD72-45D7-9C68-C9ACEFDD9922}"/>
   </bookViews>
@@ -43,9 +43,9 @@
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{1DC5FDF4-5CDC-45C7-8D75-E637F4CDB6DA}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Hay que juntar las areas metropolitanas de las ciudades que se estan evaluando en las de ocupados</t>
       </text>
     </comment>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Title</t>
   </si>
@@ -321,6 +321,9 @@
   <si>
     <t>Simple Maps</t>
   </si>
+  <si>
+    <t>Fiscal Performance</t>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -569,12 +572,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -831,7 +843,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1137,11 +1149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FE44-E603-43A6-A941-8DC122599DDB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
@@ -1188,7 +1200,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1246,7 +1258,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1304,7 +1316,7 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -1354,7 +1366,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1469,14 +1481,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="26" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -1603,11 +1617,13 @@
     <hyperlink ref="D4" r:id="rId2" xr:uid="{E2D73C58-1A1C-4D25-AFC1-85ECBD970296}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{E408EE6A-5FF3-457B-BB43-779468FAFA03}"/>
     <hyperlink ref="D8" r:id="rId4" xr:uid="{A22BEEA3-13E8-4871-B2D3-0ACB4CED805C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{715D84ED-A35A-46CB-8DD2-6D58B20916F7}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{8B3D39AD-64EB-40FE-99B7-763756010CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>